--- a/extra/报名记录-错误-2.xlsx
+++ b/extra/报名记录-错误-2.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,16 +481,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>298590127</v>
+        <v>417834782</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>珍珠</t>
+          <t>随遇而安</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,24 +501,24 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" s="2" t="n">
-        <v>44438.86299768519</v>
+        <v>44443.85888888889</v>
       </c>
       <c r="H2" t="n">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>273550090</v>
+        <v>419129382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>紫色精灵</t>
+          <t>阿酒吖</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,20 +529,24 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" s="2" t="n">
-        <v>44438.84979166667</v>
+        <v>44443.85494212963</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>352812616</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>371476557</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>亿萬星辰</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -553,24 +557,24 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" s="2" t="n">
-        <v>44438.8409837963</v>
+        <v>44443.84608796296</v>
       </c>
       <c r="H4" t="n">
-        <v>470</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>371721922</v>
+        <v>147964535</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>老周</t>
+          <t>向阳花</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,24 +585,24 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" s="2" t="n">
-        <v>44438.83427083334</v>
+        <v>44443.82328703703</v>
       </c>
       <c r="H5" t="n">
-        <v>817</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>372448464</v>
+        <v>278273768</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>没想好</t>
+          <t>丁香</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,24 +613,24 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" s="2" t="n">
-        <v>44438.81805555556</v>
+        <v>44443.80643518519</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>556556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>412444755</v>
+        <v>268678865</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>你的答案</t>
+          <t>梅兰竹菊</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,24 +641,24 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" s="2" t="n">
-        <v>44438.81120370371</v>
+        <v>44443.80638888889</v>
       </c>
       <c r="H7" t="n">
-        <v>81</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>390932348</v>
+        <v>187709854</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAa~天津  大鹏</t>
+          <t>刘慧萍</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -665,24 +669,24 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" s="2" t="n">
-        <v>44438.80530092592</v>
+        <v>44443.80494212963</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>331520070</v>
+        <v>228825657</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>佟桂云</t>
+          <t>祖荣格</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -693,24 +697,24 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" s="2" t="n">
-        <v>44438.80336805555</v>
+        <v>44443.80326388889</v>
       </c>
       <c r="H9" t="n">
-        <v>36</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>277195141</v>
+        <v>281609261</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>春暖花开</t>
+          <t>高兰</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -721,24 +725,24 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" s="2" t="n">
-        <v>44438.80043981481</v>
+        <v>44443.79736111111</v>
       </c>
       <c r="H10" t="n">
-        <v>173</v>
+        <v>7333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>308558204</v>
+        <v>296519950</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>姜长玉</t>
+          <t>苏凤菊</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -749,24 +753,24 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" s="2" t="n">
-        <v>44438.79706018518</v>
+        <v>44443.79673611111</v>
       </c>
       <c r="H11" t="n">
-        <v>8621</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>304891590</v>
+        <v>279895756</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>皮奶奶</t>
+          <t>王述青</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -777,24 +781,24 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" s="2" t="n">
-        <v>44438.79641203704</v>
+        <v>44443.79612268518</v>
       </c>
       <c r="H12" t="n">
-        <v>13164004600</v>
+        <v>7222</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>314791550</v>
+        <v>292124777</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>王树德</t>
+          <t>淑芝</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -805,24 +809,24 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" s="2" t="n">
-        <v>44438.79592592592</v>
+        <v>44443.79537037037</v>
       </c>
       <c r="H13" t="n">
-        <v>73733</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>278847779</v>
+        <v>304681506</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>郑凤英</t>
+          <t>飞驰人生</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -833,24 +837,24 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" s="2" t="n">
-        <v>44438.79582175926</v>
+        <v>44443.79516203704</v>
       </c>
       <c r="H14" t="n">
-        <v>71</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>379482030</v>
+        <v>392237212</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>小萍</t>
+          <t>雨悸</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -861,24 +865,24 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" s="2" t="n">
-        <v>44438.79582175926</v>
+        <v>44443.79509259259</v>
       </c>
       <c r="H15" t="n">
-        <v>27</v>
+        <v>7739</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>346562093</v>
+        <v>308359500</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>春草</t>
+          <t>孙姐</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -889,24 +893,24 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" s="2" t="n">
-        <v>44438.79571759259</v>
+        <v>44443.79458333334</v>
       </c>
       <c r="H16" t="n">
-        <v>2077</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>207381389</v>
+        <v>395038588</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>俏丽の梅</t>
+          <t>老烟枪</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -917,24 +921,24 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" s="2" t="n">
-        <v>44438.79560185185</v>
+        <v>44443.79454861111</v>
       </c>
       <c r="H17" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>414756161</v>
+        <v>346150271</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>许玉玲</t>
+          <t>杨惠娥</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -945,10 +949,10 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" s="2" t="n">
-        <v>44438.79478009259</v>
+        <v>44443.79351851852</v>
       </c>
       <c r="H18" t="n">
-        <v>3009</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -962,7 +966,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华寿乐活TV-有医说一  (2)</t>
+          <t>华寿乐活TV-有医说一（2）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -973,10 +977,38 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" s="2" t="n">
-        <v>44438.79341435185</v>
+        <v>44443.79327546297</v>
       </c>
       <c r="H19" t="n">
-        <v>17</v>
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>303932102</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>萍萍安安</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华寿乐活TV-有医说一（2）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>话题</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" s="2" t="n">
+        <v>44443.79185185185</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5017</v>
       </c>
     </row>
   </sheetData>
